--- a/CR - Cost Report/CBOM/Temps_process_a_completer.xlsx
+++ b/CR - Cost Report/CBOM/Temps_process_a_completer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Operation</t>
   </si>
@@ -141,6 +141,33 @@
   </si>
   <si>
     <t>Tout ce qui s'assemble à la main et dont tu as une idée du temps d'assemblage</t>
+  </si>
+  <si>
+    <t>35 min</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>10 min, 20cm²</t>
+  </si>
+  <si>
+    <t>15min</t>
   </si>
 </sst>
 </file>
@@ -656,7 +683,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,14 +711,18 @@
       <c r="B2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
@@ -707,7 +738,9 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -716,7 +749,9 @@
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -725,7 +760,9 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -734,7 +771,9 @@
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -743,28 +782,36 @@
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -794,7 +841,9 @@
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
@@ -803,7 +852,9 @@
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -821,21 +872,27 @@
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
@@ -844,7 +901,9 @@
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">

--- a/CR - Cost Report/CBOM/Temps_process_a_completer.xlsx
+++ b/CR - Cost Report/CBOM/Temps_process_a_completer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Operation</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>15min</t>
+  </si>
+  <si>
+    <t>30 sec</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,7 +924,9 @@
       <c r="B24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
